--- a/reports/nbeats_tuned_params_optimized.xlsx
+++ b/reports/nbeats_tuned_params_optimized.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,152 +470,292 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>MAPE_y5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MAPE_y6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>val_MAPE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>val_loss</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>model_name</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>GPU</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ram_usage_MB</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>fit_cost_seconds</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>dataset_type</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>input_chunk_length</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>output_chunk_length</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>n_epochs</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>batch_size</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>num_stacks</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>num_blocks</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_layers</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>layer_widths</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>dropout</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>lr</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>random_state</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>validation_split</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>stride</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Y_cols</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>X_cols</t>
+          <t>Y_col_list</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>X_col_list</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Y_scalers</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>X_scalers</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>add_encoders</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>early_stopping</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>checkpoint_config</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>trainer_config</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>46014.34853289717</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.682497291762281e+19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27885.611328125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38869.47265625</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2937691326906368</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.055677937720492e+18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38558.8203125</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.07663572885753e+19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7347750</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29164255232</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>SUCCESS</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>optuna_nbeats_typesqrt_ic120_oc24_bs64_st24_bl2_ly2_wd256_dp0.2_lr0.0005_encodersenc4_stride24_vl0.2_Ycol6_Xcol11_monitorMAPE</t>
+        </is>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>186.39990234375</v>
+      </c>
+      <c r="O2" t="n">
+        <v>109.0385699272156</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>120</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>64</v>
+      </c>
+      <c r="U2" t="n">
+        <v>24</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>256</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>['y1', 'y2', 'y3', 'y4', 'y5', 'y6']</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>['x1', 'x2', 'x3', 'x5', 'x6', 'x7_sin', 'x7_cos', 'x4_zero', 'x4_nonzero', 'x8_zero', 'x8_nonzero']</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>{"y1": {"scaler_type": "Scaler"}, "y2": {"scaler_type": "Scaler"}, "y3": {"scaler_type": "Scaler"}, "y4": {"scaler_type": "Scaler"}, "y5": {"scaler_type": "Scaler"}, "y6": {"scaler_type": "Scaler"}}</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>{"x1": {"scaler_type": "Scaler"}, "x3": {"scaler_type": "Scaler"}, "x5": {"scaler_type": "Scaler"}, "x6": {"scaler_type": "Scaler"}}</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>{"cyclic": {"past": ["hour", "dayofweek", "weekday", "month"]}, "datetime_attribute": {"past": ["hour", "dayofweek", "weekday", "month"]}, "position": {"past": ["relative"]}, "tz": "Asia/Jakarta"}</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>{"monitor": "val_MeanAbsolutePercentageError", "patience": 5, "min_delta": 0.01, "mode": "min"}</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>{"dirpath": "models/checkpoint_tuning_nbeats2/optuna_nbeats_typesqrt_ic120_oc24_bs64_st24_bl2_ly2_wd256_dp0.2_lr0.0005_encodersenc4_stride24_vl0.2_Ycol6_Xcol11_monitorMAPE/checkpoints", "filename": "MAPE-best-epoch={epoch}-val_MAPE={val_MeanAbsolutePercentageError:.4f}-val_loss={val_loss:.4f}", "monitor": "val_MeanAbsolutePercentageError", "save_top_k": 1, "mode": "min", "auto_insert_metric_name": false}</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>{"accelerator": "gpu", "devices": [0], "callbacks": {"early_stopping": "", "model_checkpoint": ""}}</t>
         </is>
       </c>
     </row>
